--- a/biology/Médecine/1185_en_santé_et_médecine/1185_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1185_en_santé_et_médecine/1185_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1185_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1185_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1185 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1185_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1185_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 mars : Baudouin IV, roi de Jérusalem, né en 1160, meurt de la lèpre dont il est atteint depuis l'âge de dix ans[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 mars : Baudouin IV, roi de Jérusalem, né en 1160, meurt de la lèpre dont il est atteint depuis l'âge de dix ans.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1185_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1185_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +555,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première mention, à Verdun, d'une léproserie dite « des Grands Malades », qui « reçoit les riches lépreux », et dont les prébendes « sont si recherchées que des personnes saines de corps s'y font admettre[2] ».
-Une maison-Dieu est mentionnée à Château-Thierry, en Champagne, établissement qui est à l'origine de l'hôtel-Dieu que fondera la reine Jeanne de Navarre en 1304[3].
-Fondation, par Robert le Poer, de la léproserie St. Stephen de Waterford, dans le Munster en Irlande[4].
-1185-1188 : fondation d'une léproserie de femmes à Quevilly, près Rouen en Normandie, par Henri II, roi d'Angleterre[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première mention, à Verdun, d'une léproserie dite « des Grands Malades », qui « reçoit les riches lépreux », et dont les prébendes « sont si recherchées que des personnes saines de corps s'y font admettre ».
+Une maison-Dieu est mentionnée à Château-Thierry, en Champagne, établissement qui est à l'origine de l'hôtel-Dieu que fondera la reine Jeanne de Navarre en 1304.
+Fondation, par Robert le Poer, de la léproserie St. Stephen de Waterford, dans le Munster en Irlande.
+1185-1188 : fondation d'une léproserie de femmes à Quevilly, près Rouen en Normandie, par Henri II, roi d'Angleterre.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1185_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1185_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. G., médecin, qui rédige à Rennes un acte de Geoffroy II, duc de Bretagne[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. G., médecin, qui rédige à Rennes un acte de Geoffroy II, duc de Bretagne.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1185_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1185_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1185 : Gilles de Santarem (mort en 1265), médecin et moine portugais, traducteur de Rhazès et de Jean Mésué, commentateur du Viatique d'Ibn al-Jazzar[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1185 : Gilles de Santarem (mort en 1265), médecin et moine portugais, traducteur de Rhazès et de Jean Mésué, commentateur du Viatique d'Ibn al-Jazzar.</t>
         </is>
       </c>
     </row>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1185_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1185_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,9 +654,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ibn Tufayl (né vers 1110[8]), philosophe, astronome, médecin et mathématicien andalou.</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ibn Tufayl (né vers 1110), philosophe, astronome, médecin et mathématicien andalou.</t>
         </is>
       </c>
     </row>
